--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1555,6 +1555,40 @@
         </is>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Karan</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>16:53:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Kartikey</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>16:53:56</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1589,6 +1589,23 @@
         </is>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Kartikey Gupta</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>18:10:43</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1606,6 +1606,40 @@
         </is>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Aryan Bhargava</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>18:56:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Aryan Bhargava</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>18:57:55</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1640,6 +1640,23 @@
         </is>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Kartikey Gupta</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>19:00:22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1657,6 +1657,40 @@
         </is>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Kartikey Gupta</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>20:32:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Kartikey Gupta</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>20:42:40</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
